--- a/mapping_file_creator/primer_lists.xlsx
+++ b/mapping_file_creator/primer_lists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zeus.nioz.nl\mmb\molecular_ecology\mollab_team\Sequencing\ngs_sequencing\220208_python_mapping_file_creator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\zeus.nioz.nl\mmb\molecular_ecology\mollab_team\Sequencing\ngs_sequencing\python_mapping_file_creator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AFCE0A6-5DF9-4A1D-844D-405DD8145A2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="11295" firstSheet="7" activeTab="10" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
   </bookViews>
   <sheets>
     <sheet name="515F_Golay" sheetId="5" r:id="rId1"/>
@@ -20,6 +20,10 @@
     <sheet name="12S_R1_Golay" sheetId="4" r:id="rId5"/>
     <sheet name="EUKssu_F04_A" sheetId="2" r:id="rId6"/>
     <sheet name="EUKssu_R22mod_A" sheetId="8" r:id="rId7"/>
+    <sheet name="HCO2198_A" sheetId="9" r:id="rId8"/>
+    <sheet name="m1COIintF_A" sheetId="10" r:id="rId9"/>
+    <sheet name="572_F_Golay" sheetId="11" r:id="rId10"/>
+    <sheet name="E1009R_Golay" sheetId="12" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="1425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="1741">
   <si>
     <t>TTCACTGACGGG</t>
   </si>
@@ -4315,16 +4319,982 @@
   </si>
   <si>
     <t>EUKssu_R22mod_A002</t>
+  </si>
+  <si>
+    <t>HCO2198_A001</t>
+  </si>
+  <si>
+    <t>HCO2198_A003</t>
+  </si>
+  <si>
+    <t>HCO2198_A005</t>
+  </si>
+  <si>
+    <t>HCO2198_A007</t>
+  </si>
+  <si>
+    <t>HCO2198_A009</t>
+  </si>
+  <si>
+    <t>HCO2198_A011</t>
+  </si>
+  <si>
+    <t>HCO2198_A013</t>
+  </si>
+  <si>
+    <t>HCO2198_A015</t>
+  </si>
+  <si>
+    <t>HCO2198_A017</t>
+  </si>
+  <si>
+    <t>HCO2198_A019</t>
+  </si>
+  <si>
+    <t>HCO2198_A021</t>
+  </si>
+  <si>
+    <t>HCO2198_A023</t>
+  </si>
+  <si>
+    <t>HCO2198_A025</t>
+  </si>
+  <si>
+    <t>HCO2198_A027</t>
+  </si>
+  <si>
+    <t>HCO2198_A029</t>
+  </si>
+  <si>
+    <t>HCO2198_A031</t>
+  </si>
+  <si>
+    <t>HCO2198_A033</t>
+  </si>
+  <si>
+    <t>HCO2198_A035</t>
+  </si>
+  <si>
+    <t>HCO2198_A037</t>
+  </si>
+  <si>
+    <t>HCO2198_A039</t>
+  </si>
+  <si>
+    <t>HCO2198_A041</t>
+  </si>
+  <si>
+    <t>HCO2198_A043</t>
+  </si>
+  <si>
+    <t>HCO2198_A045</t>
+  </si>
+  <si>
+    <t>HCO2198_A047</t>
+  </si>
+  <si>
+    <t>HCO2198_A049</t>
+  </si>
+  <si>
+    <t>HCO2198_A051</t>
+  </si>
+  <si>
+    <t>HCO2198_A053</t>
+  </si>
+  <si>
+    <t>HCO2198_A055</t>
+  </si>
+  <si>
+    <t>HCO2198_A057</t>
+  </si>
+  <si>
+    <t>HCO2198_A059</t>
+  </si>
+  <si>
+    <t>HCO2198_A061</t>
+  </si>
+  <si>
+    <t>HCO2198_A063</t>
+  </si>
+  <si>
+    <t>HCO2198_A065</t>
+  </si>
+  <si>
+    <t>HCO2198_A067</t>
+  </si>
+  <si>
+    <t>HCO2198_A069</t>
+  </si>
+  <si>
+    <t>HCO2198_A071</t>
+  </si>
+  <si>
+    <t>HCO2198_A073</t>
+  </si>
+  <si>
+    <t>HCO2198_A075</t>
+  </si>
+  <si>
+    <t>HCO2198_A077</t>
+  </si>
+  <si>
+    <t>HCO2198_A079</t>
+  </si>
+  <si>
+    <t>HCO2198_A081</t>
+  </si>
+  <si>
+    <t>HCO2198_A083</t>
+  </si>
+  <si>
+    <t>HCO2198_A085</t>
+  </si>
+  <si>
+    <t>HCO2198_A087</t>
+  </si>
+  <si>
+    <t>HCO2198_A089</t>
+  </si>
+  <si>
+    <t>HCO2198_A091</t>
+  </si>
+  <si>
+    <t>HCO2198_A093</t>
+  </si>
+  <si>
+    <t>HCO2198_A095</t>
+  </si>
+  <si>
+    <t>HCO2198_A097</t>
+  </si>
+  <si>
+    <t>HCO2198_A099</t>
+  </si>
+  <si>
+    <t>HCO2198_A101</t>
+  </si>
+  <si>
+    <t>HCO2198_A103</t>
+  </si>
+  <si>
+    <t>HCO2198_A105</t>
+  </si>
+  <si>
+    <t>HCO2198_A107</t>
+  </si>
+  <si>
+    <t>HCO2198_A109</t>
+  </si>
+  <si>
+    <t>HCO2198_A111</t>
+  </si>
+  <si>
+    <t>HCO2198_A113</t>
+  </si>
+  <si>
+    <t>HCO2198_A115</t>
+  </si>
+  <si>
+    <t>HCO2198_A117</t>
+  </si>
+  <si>
+    <t>HCO2198_A119</t>
+  </si>
+  <si>
+    <t>HCO2198_A121</t>
+  </si>
+  <si>
+    <t>HCO2198_A123</t>
+  </si>
+  <si>
+    <t>HCO2198_A125</t>
+  </si>
+  <si>
+    <t>HCO2198_A127</t>
+  </si>
+  <si>
+    <t>HCO2198_A129</t>
+  </si>
+  <si>
+    <t>HCO2198_A131</t>
+  </si>
+  <si>
+    <t>HCO2198_A133</t>
+  </si>
+  <si>
+    <t>HCO2198_A135</t>
+  </si>
+  <si>
+    <t>HCO2198_A137</t>
+  </si>
+  <si>
+    <t>HCO2198_A139</t>
+  </si>
+  <si>
+    <t>HCO2198_A141</t>
+  </si>
+  <si>
+    <t>HCO2198_A143</t>
+  </si>
+  <si>
+    <t>HCO2198_A145</t>
+  </si>
+  <si>
+    <t>HCO2198_A147</t>
+  </si>
+  <si>
+    <t>HCO2198_A149</t>
+  </si>
+  <si>
+    <t>HCO2198_A151</t>
+  </si>
+  <si>
+    <t>HCO2198_A153</t>
+  </si>
+  <si>
+    <t>HCO2198_A155</t>
+  </si>
+  <si>
+    <t>HCO2198_A157</t>
+  </si>
+  <si>
+    <t>HCO2198_A161</t>
+  </si>
+  <si>
+    <t>HCO2198_A163</t>
+  </si>
+  <si>
+    <t>HCO2198_A165</t>
+  </si>
+  <si>
+    <t>HCO2198_A167</t>
+  </si>
+  <si>
+    <t>HCO2198_A169</t>
+  </si>
+  <si>
+    <t>HCO2198_A171</t>
+  </si>
+  <si>
+    <t>HCO2198_A173</t>
+  </si>
+  <si>
+    <t>HCO2198_A175</t>
+  </si>
+  <si>
+    <t>HCO2198_A177</t>
+  </si>
+  <si>
+    <t>HCO2198_A179</t>
+  </si>
+  <si>
+    <t>HCO2198_A181</t>
+  </si>
+  <si>
+    <t>HCO2198_A183</t>
+  </si>
+  <si>
+    <t>HCO2198_A185</t>
+  </si>
+  <si>
+    <t>HCO2198_A187</t>
+  </si>
+  <si>
+    <t>HCO2198_A189</t>
+  </si>
+  <si>
+    <t>HCO2198_A191</t>
+  </si>
+  <si>
+    <t>HCO2198_A193</t>
+  </si>
+  <si>
+    <t>HCO2198_A195</t>
+  </si>
+  <si>
+    <t>HCO2198_A197</t>
+  </si>
+  <si>
+    <t>HCO2198_A199</t>
+  </si>
+  <si>
+    <t>HCO2198_A201</t>
+  </si>
+  <si>
+    <t>HCO2198_A211</t>
+  </si>
+  <si>
+    <t>HCO2198_A213</t>
+  </si>
+  <si>
+    <t>HCO2198_A215</t>
+  </si>
+  <si>
+    <t>TAAACTTCAGGGTGACCAAAAATCA</t>
+  </si>
+  <si>
+    <t>GATCTAGTCCGG</t>
+  </si>
+  <si>
+    <t>TTGACCATGTGG</t>
+  </si>
+  <si>
+    <t>GCATGACTGTGG</t>
+  </si>
+  <si>
+    <t>m1COIintF_A002</t>
+  </si>
+  <si>
+    <t>m1COIintF_A004</t>
+  </si>
+  <si>
+    <t>m1COIintF_A006</t>
+  </si>
+  <si>
+    <t>m1COIintF_A008</t>
+  </si>
+  <si>
+    <t>m1COIintF_A010</t>
+  </si>
+  <si>
+    <t>m1COIintF_A012</t>
+  </si>
+  <si>
+    <t>m1COIintF_A014</t>
+  </si>
+  <si>
+    <t>m1COIintF_A016</t>
+  </si>
+  <si>
+    <t>m1COIintF_A018</t>
+  </si>
+  <si>
+    <t>m1COIintF_A020</t>
+  </si>
+  <si>
+    <t>m1COIintF_A022</t>
+  </si>
+  <si>
+    <t>m1COIintF_A024</t>
+  </si>
+  <si>
+    <t>m1COIintF_A026</t>
+  </si>
+  <si>
+    <t>m1COIintF_A028</t>
+  </si>
+  <si>
+    <t>m1COIintF_A030</t>
+  </si>
+  <si>
+    <t>m1COIintF_A032</t>
+  </si>
+  <si>
+    <t>m1COIintF_A034</t>
+  </si>
+  <si>
+    <t>m1COIintF_A038</t>
+  </si>
+  <si>
+    <t>m1COIintF_A040</t>
+  </si>
+  <si>
+    <t>m1COIintF_A042</t>
+  </si>
+  <si>
+    <t>m1COIintF_A044</t>
+  </si>
+  <si>
+    <t>m1COIintF_A046</t>
+  </si>
+  <si>
+    <t>m1COIintF_A048</t>
+  </si>
+  <si>
+    <t>m1COIintF_A050</t>
+  </si>
+  <si>
+    <t>m1COIintF_A052</t>
+  </si>
+  <si>
+    <t>m1COIintF_A054</t>
+  </si>
+  <si>
+    <t>m1COIintF_A056</t>
+  </si>
+  <si>
+    <t>m1COIintF_A058</t>
+  </si>
+  <si>
+    <t>m1COIintF_A060</t>
+  </si>
+  <si>
+    <t>m1COIintF_A062</t>
+  </si>
+  <si>
+    <t>m1COIintF_A064</t>
+  </si>
+  <si>
+    <t>m1COIintF_A066</t>
+  </si>
+  <si>
+    <t>m1COIintF_A068</t>
+  </si>
+  <si>
+    <t>m1COIintF_A070</t>
+  </si>
+  <si>
+    <t>m1COIintF_A072</t>
+  </si>
+  <si>
+    <t>m1COIintF_A074</t>
+  </si>
+  <si>
+    <t>m1COIintF_A076</t>
+  </si>
+  <si>
+    <t>m1COIintF_A078</t>
+  </si>
+  <si>
+    <t>m1COIintF_A080</t>
+  </si>
+  <si>
+    <t>m1COIintF_A082</t>
+  </si>
+  <si>
+    <t>m1COIintF_A084</t>
+  </si>
+  <si>
+    <t>m1COIintF_A086</t>
+  </si>
+  <si>
+    <t>m1COIintF_A088</t>
+  </si>
+  <si>
+    <t>m1COIintF_A090</t>
+  </si>
+  <si>
+    <t>m1COIintF_A092</t>
+  </si>
+  <si>
+    <t>m1COIintF_A094</t>
+  </si>
+  <si>
+    <t>m1COIintF_A096</t>
+  </si>
+  <si>
+    <t>m1COIintF_A100</t>
+  </si>
+  <si>
+    <t>m1COIintF_A102</t>
+  </si>
+  <si>
+    <t>m1COIintF_A104</t>
+  </si>
+  <si>
+    <t>m1COIintF_A106</t>
+  </si>
+  <si>
+    <t>m1COIintF_A108</t>
+  </si>
+  <si>
+    <t>m1COIintF_A110</t>
+  </si>
+  <si>
+    <t>m1COIintF_A112</t>
+  </si>
+  <si>
+    <t>m1COIintF_A114</t>
+  </si>
+  <si>
+    <t>m1COIintF_A116</t>
+  </si>
+  <si>
+    <t>m1COIintF_A118</t>
+  </si>
+  <si>
+    <t>m1COIintF_A120</t>
+  </si>
+  <si>
+    <t>m1COIintF_A122</t>
+  </si>
+  <si>
+    <t>m1COIintF_A124</t>
+  </si>
+  <si>
+    <t>m1COIintF_A126</t>
+  </si>
+  <si>
+    <t>m1COIintF_A128</t>
+  </si>
+  <si>
+    <t>m1COIintF_A130</t>
+  </si>
+  <si>
+    <t>m1COIintF_A132</t>
+  </si>
+  <si>
+    <t>m1COIintF_A134</t>
+  </si>
+  <si>
+    <t>m1COIintF_A136</t>
+  </si>
+  <si>
+    <t>m1COIintF_A138</t>
+  </si>
+  <si>
+    <t>m1COIintF_A140</t>
+  </si>
+  <si>
+    <t>m1COIintF_A142</t>
+  </si>
+  <si>
+    <t>m1COIintF_A144</t>
+  </si>
+  <si>
+    <t>m1COIintF_A146</t>
+  </si>
+  <si>
+    <t>m1COIintF_A148</t>
+  </si>
+  <si>
+    <t>m1COIintF_A150</t>
+  </si>
+  <si>
+    <t>m1COIintF_A152</t>
+  </si>
+  <si>
+    <t>m1COIintF_A154</t>
+  </si>
+  <si>
+    <t>m1COIintF_A156</t>
+  </si>
+  <si>
+    <t>m1COIintF_A158</t>
+  </si>
+  <si>
+    <t>m1COIintF_A160</t>
+  </si>
+  <si>
+    <t>m1COIintF_A162</t>
+  </si>
+  <si>
+    <t>m1COIintF_A164</t>
+  </si>
+  <si>
+    <t>m1COIintF_A166</t>
+  </si>
+  <si>
+    <t>m1COIintF_A168</t>
+  </si>
+  <si>
+    <t>m1COIintF_A170</t>
+  </si>
+  <si>
+    <t>m1COIintF_A172</t>
+  </si>
+  <si>
+    <t>m1COIintF_A174</t>
+  </si>
+  <si>
+    <t>m1COIintF_A176</t>
+  </si>
+  <si>
+    <t>m1COIintF_A178</t>
+  </si>
+  <si>
+    <t>m1COIintF_A180</t>
+  </si>
+  <si>
+    <t>m1COIintF_A182</t>
+  </si>
+  <si>
+    <t>m1COIintF_A184</t>
+  </si>
+  <si>
+    <t>m1COIintF_A186</t>
+  </si>
+  <si>
+    <t>m1COIintF_A188</t>
+  </si>
+  <si>
+    <t>m1COIintF_A190</t>
+  </si>
+  <si>
+    <t>m1COIintF_A192</t>
+  </si>
+  <si>
+    <t>m1COIintF_A194</t>
+  </si>
+  <si>
+    <t>m1COIintF_A196</t>
+  </si>
+  <si>
+    <t>m1COIintF_A198</t>
+  </si>
+  <si>
+    <t>m1COIintF_A200</t>
+  </si>
+  <si>
+    <t>m1COIintF_A202</t>
+  </si>
+  <si>
+    <t>m1COIintF_A204</t>
+  </si>
+  <si>
+    <t>m1COIintF_A212</t>
+  </si>
+  <si>
+    <t>m1COIintF_A214</t>
+  </si>
+  <si>
+    <t>m1COIintF_A216</t>
+  </si>
+  <si>
+    <r>
+      <t>GG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>WACWGGWTGAACWGTWTAYCCYCC</t>
+    </r>
+  </si>
+  <si>
+    <t>AGAGCTACGGAA</t>
+  </si>
+  <si>
+    <t>CCCTTGGCCCAA</t>
+  </si>
+  <si>
+    <t>ATTAATTCCCAA</t>
+  </si>
+  <si>
+    <t>572_F_Golay001</t>
+  </si>
+  <si>
+    <t>572_F_Golay003</t>
+  </si>
+  <si>
+    <t>572_F_Golay005</t>
+  </si>
+  <si>
+    <t>572_F_Golay007</t>
+  </si>
+  <si>
+    <t>572_F_Golay009</t>
+  </si>
+  <si>
+    <t>572_F_Golay011</t>
+  </si>
+  <si>
+    <t>572_F_Golay013</t>
+  </si>
+  <si>
+    <t>572_F_Golay015</t>
+  </si>
+  <si>
+    <t>572_F_Golay017</t>
+  </si>
+  <si>
+    <t>572_F_Golay019</t>
+  </si>
+  <si>
+    <t>572_F_Golay021</t>
+  </si>
+  <si>
+    <t>572_F_Golay023</t>
+  </si>
+  <si>
+    <t>572_F_Golay025</t>
+  </si>
+  <si>
+    <t>572_F_Golay027</t>
+  </si>
+  <si>
+    <t>572_F_Golay029</t>
+  </si>
+  <si>
+    <t>572_F_Golay031</t>
+  </si>
+  <si>
+    <t>572_F_Golay033</t>
+  </si>
+  <si>
+    <t>572_F_Golay035</t>
+  </si>
+  <si>
+    <t>572_F_Golay037</t>
+  </si>
+  <si>
+    <t>572_F_Golay039</t>
+  </si>
+  <si>
+    <t>572_F_Golay041</t>
+  </si>
+  <si>
+    <t>572_F_Golay043</t>
+  </si>
+  <si>
+    <t>572_F_Golay045</t>
+  </si>
+  <si>
+    <t>572_F_Golay047</t>
+  </si>
+  <si>
+    <t>572_F_Golay049</t>
+  </si>
+  <si>
+    <t>572_F_Golay051</t>
+  </si>
+  <si>
+    <t>572_F_Golay053</t>
+  </si>
+  <si>
+    <t>572_F_Golay055</t>
+  </si>
+  <si>
+    <t>572_F_Golay057</t>
+  </si>
+  <si>
+    <t>572_F_Golay059</t>
+  </si>
+  <si>
+    <t>572_F_Golay061</t>
+  </si>
+  <si>
+    <t>572_F_Golay063</t>
+  </si>
+  <si>
+    <t>572_F_Golay065</t>
+  </si>
+  <si>
+    <t>572_F_Golay067</t>
+  </si>
+  <si>
+    <t>572_F_Golay069</t>
+  </si>
+  <si>
+    <t>572_F_Golay071</t>
+  </si>
+  <si>
+    <t>572_F_Golay073</t>
+  </si>
+  <si>
+    <t>572_F_Golay075</t>
+  </si>
+  <si>
+    <t>572_F_Golay077</t>
+  </si>
+  <si>
+    <t>572_F_Golay079</t>
+  </si>
+  <si>
+    <t>572_F_Golay081</t>
+  </si>
+  <si>
+    <t>572_F_Golay083</t>
+  </si>
+  <si>
+    <t>572_F_Golay085</t>
+  </si>
+  <si>
+    <t>572_F_Golay087</t>
+  </si>
+  <si>
+    <t>572_F_Golay089</t>
+  </si>
+  <si>
+    <t>572_F_Golay091</t>
+  </si>
+  <si>
+    <t>572_F_Golay093</t>
+  </si>
+  <si>
+    <t>572_F_Golay095</t>
+  </si>
+  <si>
+    <t>572_F_Golay097</t>
+  </si>
+  <si>
+    <t>572_F_Golay099</t>
+  </si>
+  <si>
+    <t>CYGCGGTAATTCCAGCTC</t>
+  </si>
+  <si>
+    <t>E1009R_Golay100</t>
+  </si>
+  <si>
+    <t>E1009R_Golay002</t>
+  </si>
+  <si>
+    <t>E1009R_Golay004</t>
+  </si>
+  <si>
+    <t>E1009R_Golay006</t>
+  </si>
+  <si>
+    <t>E1009R_Golay008</t>
+  </si>
+  <si>
+    <t>E1009R_Golay010</t>
+  </si>
+  <si>
+    <t>E1009R_Golay012</t>
+  </si>
+  <si>
+    <t>E1009R_Golay014</t>
+  </si>
+  <si>
+    <t>E1009R_Golay016</t>
+  </si>
+  <si>
+    <t>E1009R_Golay018</t>
+  </si>
+  <si>
+    <t>E1009R_Golay020</t>
+  </si>
+  <si>
+    <t>E1009R_Golay022</t>
+  </si>
+  <si>
+    <t>E1009R_Golay024</t>
+  </si>
+  <si>
+    <t>E1009R_Golay026</t>
+  </si>
+  <si>
+    <t>E1009R_Golay028</t>
+  </si>
+  <si>
+    <t>E1009R_Golay030</t>
+  </si>
+  <si>
+    <t>E1009R_Golay032</t>
+  </si>
+  <si>
+    <t>E1009R_Golay034</t>
+  </si>
+  <si>
+    <t>E1009R_Golay036</t>
+  </si>
+  <si>
+    <t>E1009R_Golay038</t>
+  </si>
+  <si>
+    <t>E1009R_Golay040</t>
+  </si>
+  <si>
+    <t>E1009R_Golay042</t>
+  </si>
+  <si>
+    <t>E1009R_Golay044</t>
+  </si>
+  <si>
+    <t>E1009R_Golay046</t>
+  </si>
+  <si>
+    <t>E1009R_Golay048</t>
+  </si>
+  <si>
+    <t>E1009R_Golay050</t>
+  </si>
+  <si>
+    <t>E1009R_Golay052</t>
+  </si>
+  <si>
+    <t>E1009R_Golay054</t>
+  </si>
+  <si>
+    <t>E1009R_Golay056</t>
+  </si>
+  <si>
+    <t>E1009R_Golay058</t>
+  </si>
+  <si>
+    <t>E1009R_Golay060</t>
+  </si>
+  <si>
+    <t>E1009R_Golay062</t>
+  </si>
+  <si>
+    <t>E1009R_Golay064</t>
+  </si>
+  <si>
+    <t>E1009R_Golay066</t>
+  </si>
+  <si>
+    <t>E1009R_Golay068</t>
+  </si>
+  <si>
+    <t>E1009R_Golay070</t>
+  </si>
+  <si>
+    <t>E1009R_Golay072</t>
+  </si>
+  <si>
+    <t>E1009R_Golay074</t>
+  </si>
+  <si>
+    <t>E1009R_Golay076</t>
+  </si>
+  <si>
+    <t>E1009R_Golay078</t>
+  </si>
+  <si>
+    <t>E1009R_Golay080</t>
+  </si>
+  <si>
+    <t>E1009R_Golay082</t>
+  </si>
+  <si>
+    <t>E1009R_Golay084</t>
+  </si>
+  <si>
+    <t>E1009R_Golay086</t>
+  </si>
+  <si>
+    <t>E1009R_Golay088</t>
+  </si>
+  <si>
+    <t>E1009R_Golay090</t>
+  </si>
+  <si>
+    <t>E1009R_Golay092</t>
+  </si>
+  <si>
+    <t>E1009R_Golay094</t>
+  </si>
+  <si>
+    <t>E1009R_Golay096</t>
+  </si>
+  <si>
+    <t>E1009R_Golay098</t>
+  </si>
+  <si>
+    <t>CRAAGAYGATYAGATACCRT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4350,8 +5320,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6147,6 +7121,1169 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FEA6D71-7F14-427A-81C8-8C0A00E0EBA8}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1639</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C2" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C3" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1641</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C4" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C5" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1643</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C6" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1645</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C8" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C9" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C10" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C11" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1649</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C12" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C13" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1651</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C14" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C15" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1653</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C17" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C18" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C20" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C21" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1659</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C22" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C23" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C24" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C25" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1663</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C26" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C27" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1665</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C28" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C29" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1667</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C30" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C31" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1669</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C32" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C33" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1671</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C34" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C35" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C36" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C37" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C38" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C39" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1677</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C40" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C41" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C42" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C43" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C44" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C45" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C46" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C47" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C48" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C49" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C50" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C51" t="s">
+        <v>610</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E2E37-CE4D-418C-949D-C34823ED8B48}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C2" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C3" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C5" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C6" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C7" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C8" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C9" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C10" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C11" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C12" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C13" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C14" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C15" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C16" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C17" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C18" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C19" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C20" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C21" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1711</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C22" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C23" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C24" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C25" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1715</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C26" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C27" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1717</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C28" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C29" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1719</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C30" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C31" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C32" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C33" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1723</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C34" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C35" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1725</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C36" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C37" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1727</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C38" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C39" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1729</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C40" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C41" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1731</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C42" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1732</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C43" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C44" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1734</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C45" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C46" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1736</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C47" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C48" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1738</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C49" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C50" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C51" t="s">
+        <v>875</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CFC58D-9DC9-4FA8-82DC-FE178B236CAD}">
   <dimension ref="A1:C129"/>
@@ -10433,8 +12570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C105E2A-D1B7-4F1C-853F-5E682FE20436}">
   <dimension ref="A1:C101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11565,7 +13702,7 @@
   <dimension ref="A1:C101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12689,4 +14826,2331 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8E1DE-74ED-415C-AB53-011B83B5636D}">
+  <dimension ref="A1:C104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C8" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C9" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C10" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C13" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C14" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C15" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C16" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C20" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C21" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C22" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C24" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C25" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C26" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C29" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C33" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C35" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C36" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C40" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C41" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C42" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C43" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C44" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C46" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C48" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C56" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C63" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C64" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C65" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C66" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C67" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C69" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C71" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C73" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C75" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C76" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C78" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C79" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C80" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C81" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C82" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C84" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C87" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C88" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C89" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C90" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C91" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B93" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C93" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B94" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C94" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B95" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B96" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C96" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B97" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C97" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B98" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B99" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B100" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B101" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C101" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B102" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1529</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B103" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B104" t="s">
+        <v>1528</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1531</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61E1E114-6612-4F15-87CD-D857DD8D6820}">
+  <dimension ref="A1:C104"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C18" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C21" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C22" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C25" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C26" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C27" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C29" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C30" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C31" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C32" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C34" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C36" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C38" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C39" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C40" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C42" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C45" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C46" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C49" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C50" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C51" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C53" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C54" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C56" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C57" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C58" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C59" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C60" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C61" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C63" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C64" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C65" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C66" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C67" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C68" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C69" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C70" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C71" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C72" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C74" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C77" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C78" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C79" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C80" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C81" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C82" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C83" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C84" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C85" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>1616</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C86" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>1618</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C88" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C89" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C91" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C92" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>1625</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C96" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>1627</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>1629</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C99" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C100" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>1631</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>1633</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C104" t="s">
+        <v>1638</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/mapping_file_creator/primer_lists.xlsx
+++ b/mapping_file_creator/primer_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="57" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C783F86-294E-4708-BE81-7A65A5119F70}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E093CC5-867F-4B83-9D86-1C13FC046AB7}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
+    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" activeTab="2" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
   </bookViews>
   <sheets>
     <sheet name="515F_Golay" sheetId="5" r:id="rId1"/>
@@ -6086,402 +6086,6 @@
     <t>926RBC_Golay0256</t>
   </si>
   <si>
-    <t>806RB_Golay0002</t>
-  </si>
-  <si>
-    <t>806RB_Golay0004</t>
-  </si>
-  <si>
-    <t>806RB_Golay0006</t>
-  </si>
-  <si>
-    <t>806RB_Golay0008</t>
-  </si>
-  <si>
-    <t>806RB_Golay0110</t>
-  </si>
-  <si>
-    <t>806RB_Golay0112</t>
-  </si>
-  <si>
-    <t>806RB_Golay0114</t>
-  </si>
-  <si>
-    <t>806RB_Golay0116</t>
-  </si>
-  <si>
-    <t>806RB_Golay0118</t>
-  </si>
-  <si>
-    <t>806RB_Golay0220</t>
-  </si>
-  <si>
-    <t>806RB_Golay0222</t>
-  </si>
-  <si>
-    <t>806RB_Golay0224</t>
-  </si>
-  <si>
-    <t>806RB_Golay0226</t>
-  </si>
-  <si>
-    <t>806RB_Golay0228</t>
-  </si>
-  <si>
-    <t>806RB_Golay0010</t>
-  </si>
-  <si>
-    <t>806RB_Golay0012</t>
-  </si>
-  <si>
-    <t>806RB_Golay0014</t>
-  </si>
-  <si>
-    <t>806RB_Golay0016</t>
-  </si>
-  <si>
-    <t>806RB_Golay0018</t>
-  </si>
-  <si>
-    <t>806RB_Golay0020</t>
-  </si>
-  <si>
-    <t>806RB_Golay0022</t>
-  </si>
-  <si>
-    <t>806RB_Golay0024</t>
-  </si>
-  <si>
-    <t>806RB_Golay0026</t>
-  </si>
-  <si>
-    <t>806RB_Golay0028</t>
-  </si>
-  <si>
-    <t>806RB_Golay0030</t>
-  </si>
-  <si>
-    <t>806RB_Golay0032</t>
-  </si>
-  <si>
-    <t>806RB_Golay0034</t>
-  </si>
-  <si>
-    <t>806RB_Golay0036</t>
-  </si>
-  <si>
-    <t>806RB_Golay0038</t>
-  </si>
-  <si>
-    <t>806RB_Golay0040</t>
-  </si>
-  <si>
-    <t>806RB_Golay0042</t>
-  </si>
-  <si>
-    <t>806RB_Golay0044</t>
-  </si>
-  <si>
-    <t>806RB_Golay0046</t>
-  </si>
-  <si>
-    <t>806RB_Golay0048</t>
-  </si>
-  <si>
-    <t>806RB_Golay0050</t>
-  </si>
-  <si>
-    <t>806RB_Golay0052</t>
-  </si>
-  <si>
-    <t>806RB_Golay0054</t>
-  </si>
-  <si>
-    <t>806RB_Golay0056</t>
-  </si>
-  <si>
-    <t>806RB_Golay0058</t>
-  </si>
-  <si>
-    <t>806RB_Golay0060</t>
-  </si>
-  <si>
-    <t>806RB_Golay0062</t>
-  </si>
-  <si>
-    <t>806RB_Golay0064</t>
-  </si>
-  <si>
-    <t>806RB_Golay0066</t>
-  </si>
-  <si>
-    <t>806RB_Golay0068</t>
-  </si>
-  <si>
-    <t>806RB_Golay0070</t>
-  </si>
-  <si>
-    <t>806RB_Golay0072</t>
-  </si>
-  <si>
-    <t>806RB_Golay0074</t>
-  </si>
-  <si>
-    <t>806RB_Golay0076</t>
-  </si>
-  <si>
-    <t>806RB_Golay0078</t>
-  </si>
-  <si>
-    <t>806RB_Golay0080</t>
-  </si>
-  <si>
-    <t>806RB_Golay0082</t>
-  </si>
-  <si>
-    <t>806RB_Golay0084</t>
-  </si>
-  <si>
-    <t>806RB_Golay0086</t>
-  </si>
-  <si>
-    <t>806RB_Golay0088</t>
-  </si>
-  <si>
-    <t>806RB_Golay0090</t>
-  </si>
-  <si>
-    <t>806RB_Golay0092</t>
-  </si>
-  <si>
-    <t>806RB_Golay0094</t>
-  </si>
-  <si>
-    <t>806RB_Golay0096</t>
-  </si>
-  <si>
-    <t>806RB_Golay0098</t>
-  </si>
-  <si>
-    <t>806RB_Golay0100</t>
-  </si>
-  <si>
-    <t>806RB_Golay0102</t>
-  </si>
-  <si>
-    <t>806RB_Golay0104</t>
-  </si>
-  <si>
-    <t>806RB_Golay0106</t>
-  </si>
-  <si>
-    <t>806RB_Golay0108</t>
-  </si>
-  <si>
-    <t>806RB_Golay0120</t>
-  </si>
-  <si>
-    <t>806RB_Golay0122</t>
-  </si>
-  <si>
-    <t>806RB_Golay0124</t>
-  </si>
-  <si>
-    <t>806RB_Golay0126</t>
-  </si>
-  <si>
-    <t>806RB_Golay0128</t>
-  </si>
-  <si>
-    <t>806RB_Golay0130</t>
-  </si>
-  <si>
-    <t>806RB_Golay0132</t>
-  </si>
-  <si>
-    <t>806RB_Golay0134</t>
-  </si>
-  <si>
-    <t>806RB_Golay0136</t>
-  </si>
-  <si>
-    <t>806RB_Golay0138</t>
-  </si>
-  <si>
-    <t>806RB_Golay0140</t>
-  </si>
-  <si>
-    <t>806RB_Golay0142</t>
-  </si>
-  <si>
-    <t>806RB_Golay0144</t>
-  </si>
-  <si>
-    <t>806RB_Golay0146</t>
-  </si>
-  <si>
-    <t>806RB_Golay0148</t>
-  </si>
-  <si>
-    <t>806RB_Golay0150</t>
-  </si>
-  <si>
-    <t>806RB_Golay0152</t>
-  </si>
-  <si>
-    <t>806RB_Golay0154</t>
-  </si>
-  <si>
-    <t>806RB_Golay0156</t>
-  </si>
-  <si>
-    <t>806RB_Golay0158</t>
-  </si>
-  <si>
-    <t>806RB_Golay0160</t>
-  </si>
-  <si>
-    <t>806RB_Golay0162</t>
-  </si>
-  <si>
-    <t>806RB_Golay0164</t>
-  </si>
-  <si>
-    <t>806RB_Golay0166</t>
-  </si>
-  <si>
-    <t>806RB_Golay0168</t>
-  </si>
-  <si>
-    <t>806RB_Golay0170</t>
-  </si>
-  <si>
-    <t>806RB_Golay0172</t>
-  </si>
-  <si>
-    <t>806RB_Golay0174</t>
-  </si>
-  <si>
-    <t>806RB_Golay0176</t>
-  </si>
-  <si>
-    <t>806RB_Golay0178</t>
-  </si>
-  <si>
-    <t>806RB_Golay0180</t>
-  </si>
-  <si>
-    <t>806RB_Golay0182</t>
-  </si>
-  <si>
-    <t>806RB_Golay0184</t>
-  </si>
-  <si>
-    <t>806RB_Golay0186</t>
-  </si>
-  <si>
-    <t>806RB_Golay0188</t>
-  </si>
-  <si>
-    <t>806RB_Golay0190</t>
-  </si>
-  <si>
-    <t>806RB_Golay0192</t>
-  </si>
-  <si>
-    <t>806RB_Golay0194</t>
-  </si>
-  <si>
-    <t>806RB_Golay0196</t>
-  </si>
-  <si>
-    <t>806RB_Golay0198</t>
-  </si>
-  <si>
-    <t>806RB_Golay0200</t>
-  </si>
-  <si>
-    <t>806RB_Golay0202</t>
-  </si>
-  <si>
-    <t>806RB_Golay0204</t>
-  </si>
-  <si>
-    <t>806RB_Golay0206</t>
-  </si>
-  <si>
-    <t>806RB_Golay0208</t>
-  </si>
-  <si>
-    <t>806RB_Golay0210</t>
-  </si>
-  <si>
-    <t>806RB_Golay0212</t>
-  </si>
-  <si>
-    <t>806RB_Golay0214</t>
-  </si>
-  <si>
-    <t>806RB_Golay0216</t>
-  </si>
-  <si>
-    <t>806RB_Golay0218</t>
-  </si>
-  <si>
-    <t>806RB_Golay0230</t>
-  </si>
-  <si>
-    <t>806RB_Golay0232</t>
-  </si>
-  <si>
-    <t>806RB_Golay0234</t>
-  </si>
-  <si>
-    <t>806RB_Golay0236</t>
-  </si>
-  <si>
-    <t>806RB_Golay0238</t>
-  </si>
-  <si>
-    <t>806RB_Golay0240</t>
-  </si>
-  <si>
-    <t>806RB_Golay0242</t>
-  </si>
-  <si>
-    <t>806RB_Golay0244</t>
-  </si>
-  <si>
-    <t>806RB_Golay0246</t>
-  </si>
-  <si>
-    <t>806RB_Golay0248</t>
-  </si>
-  <si>
-    <t>806RB_Golay0250</t>
-  </si>
-  <si>
-    <t>806RB_Golay0252</t>
-  </si>
-  <si>
-    <t>806RB_Golay0254</t>
-  </si>
-  <si>
-    <t>806RB_Golay0256</t>
-  </si>
-  <si>
-    <t>806RB_Golay0405</t>
-  </si>
-  <si>
-    <t>806RB_Golay0406</t>
-  </si>
-  <si>
-    <t>806RB_Golay0407</t>
-  </si>
-  <si>
-    <t>806RB_Golay0408</t>
-  </si>
-  <si>
     <t>951R_Golay9002</t>
   </si>
   <si>
@@ -6783,6 +6387,402 @@
   </si>
   <si>
     <t>TTGGYRAATGCTTTCGC</t>
+  </si>
+  <si>
+    <t>806RB_Golay002</t>
+  </si>
+  <si>
+    <t>806RB_Golay004</t>
+  </si>
+  <si>
+    <t>806RB_Golay006</t>
+  </si>
+  <si>
+    <t>806RB_Golay008</t>
+  </si>
+  <si>
+    <t>806RB_Golay010</t>
+  </si>
+  <si>
+    <t>806RB_Golay012</t>
+  </si>
+  <si>
+    <t>806RB_Golay014</t>
+  </si>
+  <si>
+    <t>806RB_Golay016</t>
+  </si>
+  <si>
+    <t>806RB_Golay018</t>
+  </si>
+  <si>
+    <t>806RB_Golay020</t>
+  </si>
+  <si>
+    <t>806RB_Golay022</t>
+  </si>
+  <si>
+    <t>806RB_Golay024</t>
+  </si>
+  <si>
+    <t>806RB_Golay026</t>
+  </si>
+  <si>
+    <t>806RB_Golay028</t>
+  </si>
+  <si>
+    <t>806RB_Golay030</t>
+  </si>
+  <si>
+    <t>806RB_Golay032</t>
+  </si>
+  <si>
+    <t>806RB_Golay034</t>
+  </si>
+  <si>
+    <t>806RB_Golay036</t>
+  </si>
+  <si>
+    <t>806RB_Golay038</t>
+  </si>
+  <si>
+    <t>806RB_Golay040</t>
+  </si>
+  <si>
+    <t>806RB_Golay042</t>
+  </si>
+  <si>
+    <t>806RB_Golay044</t>
+  </si>
+  <si>
+    <t>806RB_Golay046</t>
+  </si>
+  <si>
+    <t>806RB_Golay048</t>
+  </si>
+  <si>
+    <t>806RB_Golay050</t>
+  </si>
+  <si>
+    <t>806RB_Golay052</t>
+  </si>
+  <si>
+    <t>806RB_Golay054</t>
+  </si>
+  <si>
+    <t>806RB_Golay056</t>
+  </si>
+  <si>
+    <t>806RB_Golay058</t>
+  </si>
+  <si>
+    <t>806RB_Golay060</t>
+  </si>
+  <si>
+    <t>806RB_Golay062</t>
+  </si>
+  <si>
+    <t>806RB_Golay064</t>
+  </si>
+  <si>
+    <t>806RB_Golay066</t>
+  </si>
+  <si>
+    <t>806RB_Golay068</t>
+  </si>
+  <si>
+    <t>806RB_Golay070</t>
+  </si>
+  <si>
+    <t>806RB_Golay072</t>
+  </si>
+  <si>
+    <t>806RB_Golay074</t>
+  </si>
+  <si>
+    <t>806RB_Golay076</t>
+  </si>
+  <si>
+    <t>806RB_Golay078</t>
+  </si>
+  <si>
+    <t>806RB_Golay080</t>
+  </si>
+  <si>
+    <t>806RB_Golay082</t>
+  </si>
+  <si>
+    <t>806RB_Golay084</t>
+  </si>
+  <si>
+    <t>806RB_Golay086</t>
+  </si>
+  <si>
+    <t>806RB_Golay088</t>
+  </si>
+  <si>
+    <t>806RB_Golay090</t>
+  </si>
+  <si>
+    <t>806RB_Golay092</t>
+  </si>
+  <si>
+    <t>806RB_Golay094</t>
+  </si>
+  <si>
+    <t>806RB_Golay096</t>
+  </si>
+  <si>
+    <t>806RB_Golay098</t>
+  </si>
+  <si>
+    <t>806RB_Golay100</t>
+  </si>
+  <si>
+    <t>806RB_Golay200</t>
+  </si>
+  <si>
+    <t>806RB_Golay102</t>
+  </si>
+  <si>
+    <t>806RB_Golay104</t>
+  </si>
+  <si>
+    <t>806RB_Golay106</t>
+  </si>
+  <si>
+    <t>806RB_Golay108</t>
+  </si>
+  <si>
+    <t>806RB_Golay110</t>
+  </si>
+  <si>
+    <t>806RB_Golay112</t>
+  </si>
+  <si>
+    <t>806RB_Golay114</t>
+  </si>
+  <si>
+    <t>806RB_Golay116</t>
+  </si>
+  <si>
+    <t>806RB_Golay118</t>
+  </si>
+  <si>
+    <t>806RB_Golay120</t>
+  </si>
+  <si>
+    <t>806RB_Golay122</t>
+  </si>
+  <si>
+    <t>806RB_Golay124</t>
+  </si>
+  <si>
+    <t>806RB_Golay126</t>
+  </si>
+  <si>
+    <t>806RB_Golay128</t>
+  </si>
+  <si>
+    <t>806RB_Golay130</t>
+  </si>
+  <si>
+    <t>806RB_Golay132</t>
+  </si>
+  <si>
+    <t>806RB_Golay134</t>
+  </si>
+  <si>
+    <t>806RB_Golay136</t>
+  </si>
+  <si>
+    <t>806RB_Golay138</t>
+  </si>
+  <si>
+    <t>806RB_Golay140</t>
+  </si>
+  <si>
+    <t>806RB_Golay142</t>
+  </si>
+  <si>
+    <t>806RB_Golay144</t>
+  </si>
+  <si>
+    <t>806RB_Golay146</t>
+  </si>
+  <si>
+    <t>806RB_Golay148</t>
+  </si>
+  <si>
+    <t>806RB_Golay150</t>
+  </si>
+  <si>
+    <t>806RB_Golay152</t>
+  </si>
+  <si>
+    <t>806RB_Golay154</t>
+  </si>
+  <si>
+    <t>806RB_Golay156</t>
+  </si>
+  <si>
+    <t>806RB_Golay158</t>
+  </si>
+  <si>
+    <t>806RB_Golay160</t>
+  </si>
+  <si>
+    <t>806RB_Golay162</t>
+  </si>
+  <si>
+    <t>806RB_Golay164</t>
+  </si>
+  <si>
+    <t>806RB_Golay166</t>
+  </si>
+  <si>
+    <t>806RB_Golay168</t>
+  </si>
+  <si>
+    <t>806RB_Golay170</t>
+  </si>
+  <si>
+    <t>806RB_Golay172</t>
+  </si>
+  <si>
+    <t>806RB_Golay174</t>
+  </si>
+  <si>
+    <t>806RB_Golay176</t>
+  </si>
+  <si>
+    <t>806RB_Golay178</t>
+  </si>
+  <si>
+    <t>806RB_Golay180</t>
+  </si>
+  <si>
+    <t>806RB_Golay182</t>
+  </si>
+  <si>
+    <t>806RB_Golay184</t>
+  </si>
+  <si>
+    <t>806RB_Golay186</t>
+  </si>
+  <si>
+    <t>806RB_Golay188</t>
+  </si>
+  <si>
+    <t>806RB_Golay190</t>
+  </si>
+  <si>
+    <t>806RB_Golay192</t>
+  </si>
+  <si>
+    <t>806RB_Golay194</t>
+  </si>
+  <si>
+    <t>806RB_Golay196</t>
+  </si>
+  <si>
+    <t>806RB_Golay198</t>
+  </si>
+  <si>
+    <t>806RB_Golay204</t>
+  </si>
+  <si>
+    <t>806RB_Golay206</t>
+  </si>
+  <si>
+    <t>806RB_Golay208</t>
+  </si>
+  <si>
+    <t>806RB_Golay210</t>
+  </si>
+  <si>
+    <t>806RB_Golay212</t>
+  </si>
+  <si>
+    <t>806RB_Golay214</t>
+  </si>
+  <si>
+    <t>806RB_Golay216</t>
+  </si>
+  <si>
+    <t>806RB_Golay218</t>
+  </si>
+  <si>
+    <t>806RB_Golay220</t>
+  </si>
+  <si>
+    <t>806RB_Golay222</t>
+  </si>
+  <si>
+    <t>806RB_Golay224</t>
+  </si>
+  <si>
+    <t>806RB_Golay226</t>
+  </si>
+  <si>
+    <t>806RB_Golay228</t>
+  </si>
+  <si>
+    <t>806RB_Golay230</t>
+  </si>
+  <si>
+    <t>806RB_Golay232</t>
+  </si>
+  <si>
+    <t>806RB_Golay234</t>
+  </si>
+  <si>
+    <t>806RB_Golay236</t>
+  </si>
+  <si>
+    <t>806RB_Golay238</t>
+  </si>
+  <si>
+    <t>806RB_Golay240</t>
+  </si>
+  <si>
+    <t>806RB_Golay242</t>
+  </si>
+  <si>
+    <t>806RB_Golay244</t>
+  </si>
+  <si>
+    <t>806RB_Golay246</t>
+  </si>
+  <si>
+    <t>806RB_Golay248</t>
+  </si>
+  <si>
+    <t>806RB_Golay250</t>
+  </si>
+  <si>
+    <t>806RB_Golay252</t>
+  </si>
+  <si>
+    <t>806RB_Golay254</t>
+  </si>
+  <si>
+    <t>806RB_Golay256</t>
+  </si>
+  <si>
+    <t>806RB_Golay405</t>
+  </si>
+  <si>
+    <t>806RB_Golay406</t>
+  </si>
+  <si>
+    <t>806RB_Golay407</t>
+  </si>
+  <si>
+    <t>806RB_Golay408</t>
+  </si>
+  <si>
+    <t>806RB_Golay202</t>
   </si>
 </sst>
 </file>
@@ -7202,8 +7202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951FF768-AEA3-4477-8164-51403B05AB50}">
   <dimension ref="A1:C233"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B136" sqref="B136"/>
+    <sheetView topLeftCell="A118" workbookViewId="0">
+      <selection activeCell="A134" sqref="A134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9779,6 +9779,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -10973,10 +10974,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2141</v>
+        <v>2009</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1781</v>
@@ -10984,10 +10985,10 @@
     </row>
     <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2142</v>
+        <v>2010</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>1782</v>
@@ -10995,10 +10996,10 @@
     </row>
     <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2143</v>
+        <v>2011</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>1783</v>
@@ -11006,10 +11007,10 @@
     </row>
     <row r="5" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2144</v>
+        <v>2012</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>1784</v>
@@ -11017,10 +11018,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2145</v>
+        <v>2013</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>1785</v>
@@ -11028,10 +11029,10 @@
     </row>
     <row r="7" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2146</v>
+        <v>2014</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>1786</v>
@@ -11039,10 +11040,10 @@
     </row>
     <row r="8" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2147</v>
+        <v>2015</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1787</v>
@@ -11050,10 +11051,10 @@
     </row>
     <row r="9" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2148</v>
+        <v>2016</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>1788</v>
@@ -11061,10 +11062,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>2149</v>
+        <v>2017</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>1789</v>
@@ -11072,10 +11073,10 @@
     </row>
     <row r="11" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>2150</v>
+        <v>2018</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>1790</v>
@@ -11083,10 +11084,10 @@
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>2151</v>
+        <v>2019</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>1791</v>
@@ -11094,10 +11095,10 @@
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>2152</v>
+        <v>2020</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1792</v>
@@ -11105,10 +11106,10 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>2153</v>
+        <v>2021</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>1793</v>
@@ -11116,10 +11117,10 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>2154</v>
+        <v>2022</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>1794</v>
@@ -11127,10 +11128,10 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>2155</v>
+        <v>2023</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>1795</v>
@@ -11138,10 +11139,10 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>2156</v>
+        <v>2024</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>1796</v>
@@ -11149,10 +11150,10 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>2157</v>
+        <v>2025</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>1797</v>
@@ -11160,10 +11161,10 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>2158</v>
+        <v>2026</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>1798</v>
@@ -11171,10 +11172,10 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>2159</v>
+        <v>2027</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>1799</v>
@@ -11182,10 +11183,10 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>2160</v>
+        <v>2028</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>1800</v>
@@ -11193,10 +11194,10 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>2161</v>
+        <v>2029</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>1801</v>
@@ -11204,10 +11205,10 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>2162</v>
+        <v>2030</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>1802</v>
@@ -11215,10 +11216,10 @@
     </row>
     <row r="24" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>2163</v>
+        <v>2031</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>1803</v>
@@ -11226,10 +11227,10 @@
     </row>
     <row r="25" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>2164</v>
+        <v>2032</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>1804</v>
@@ -11237,10 +11238,10 @@
     </row>
     <row r="26" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>2165</v>
+        <v>2033</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>1805</v>
@@ -11248,10 +11249,10 @@
     </row>
     <row r="27" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>2166</v>
+        <v>2034</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>1806</v>
@@ -11259,10 +11260,10 @@
     </row>
     <row r="28" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>2167</v>
+        <v>2035</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>1807</v>
@@ -11270,10 +11271,10 @@
     </row>
     <row r="29" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>2168</v>
+        <v>2036</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>1808</v>
@@ -11281,10 +11282,10 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>2169</v>
+        <v>2037</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>1809</v>
@@ -11292,10 +11293,10 @@
     </row>
     <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>2170</v>
+        <v>2038</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>1810</v>
@@ -11303,10 +11304,10 @@
     </row>
     <row r="32" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>2171</v>
+        <v>2039</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>1811</v>
@@ -11314,10 +11315,10 @@
     </row>
     <row r="33" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>2172</v>
+        <v>2040</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>1812</v>
@@ -11325,10 +11326,10 @@
     </row>
     <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>2173</v>
+        <v>2041</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>1813</v>
@@ -11336,10 +11337,10 @@
     </row>
     <row r="35" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>2174</v>
+        <v>2042</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>1814</v>
@@ -11347,10 +11348,10 @@
     </row>
     <row r="36" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>2175</v>
+        <v>2043</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>1815</v>
@@ -11358,10 +11359,10 @@
     </row>
     <row r="37" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>2176</v>
+        <v>2044</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>1816</v>
@@ -11369,10 +11370,10 @@
     </row>
     <row r="38" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>2177</v>
+        <v>2045</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>1817</v>
@@ -11380,10 +11381,10 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>2178</v>
+        <v>2046</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>1818</v>
@@ -11391,10 +11392,10 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>2179</v>
+        <v>2047</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>1819</v>
@@ -11402,10 +11403,10 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>2180</v>
+        <v>2048</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>1820</v>
@@ -11413,10 +11414,10 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>2181</v>
+        <v>2049</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>1821</v>
@@ -11424,10 +11425,10 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>2182</v>
+        <v>2050</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>1822</v>
@@ -11435,10 +11436,10 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>2183</v>
+        <v>2051</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>1823</v>
@@ -11446,10 +11447,10 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>2184</v>
+        <v>2052</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>1824</v>
@@ -11457,10 +11458,10 @@
     </row>
     <row r="46" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>2185</v>
+        <v>2053</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>1825</v>
@@ -11468,10 +11469,10 @@
     </row>
     <row r="47" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>2186</v>
+        <v>2054</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>1826</v>
@@ -11479,10 +11480,10 @@
     </row>
     <row r="48" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>2187</v>
+        <v>2055</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>1827</v>
@@ -11490,10 +11491,10 @@
     </row>
     <row r="49" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>2188</v>
+        <v>2056</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>1828</v>
@@ -11501,10 +11502,10 @@
     </row>
     <row r="50" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>2189</v>
+        <v>2057</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>1829</v>
@@ -11512,10 +11513,10 @@
     </row>
     <row r="51" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>2190</v>
+        <v>2058</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>1830</v>
@@ -11523,10 +11524,10 @@
     </row>
     <row r="52" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>2191</v>
+        <v>2059</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>1831</v>
@@ -11534,10 +11535,10 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>2192</v>
+        <v>2060</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>1832</v>
@@ -11545,10 +11546,10 @@
     </row>
     <row r="54" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>2193</v>
+        <v>2061</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>1833</v>
@@ -11556,10 +11557,10 @@
     </row>
     <row r="55" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>2194</v>
+        <v>2062</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>1834</v>
@@ -11567,10 +11568,10 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>2195</v>
+        <v>2063</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>1835</v>
@@ -11578,10 +11579,10 @@
     </row>
     <row r="57" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2196</v>
+        <v>2064</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>1836</v>
@@ -11589,10 +11590,10 @@
     </row>
     <row r="58" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>2197</v>
+        <v>2065</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>1837</v>
@@ -11600,10 +11601,10 @@
     </row>
     <row r="59" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>2198</v>
+        <v>2066</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>1838</v>
@@ -11611,10 +11612,10 @@
     </row>
     <row r="60" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>2199</v>
+        <v>2067</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>1839</v>
@@ -11622,10 +11623,10 @@
     </row>
     <row r="61" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>2200</v>
+        <v>2068</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>1840</v>
@@ -11633,10 +11634,10 @@
     </row>
     <row r="62" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>2201</v>
+        <v>2069</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>1841</v>
@@ -11644,10 +11645,10 @@
     </row>
     <row r="63" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>2202</v>
+        <v>2070</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>1842</v>
@@ -11655,10 +11656,10 @@
     </row>
     <row r="64" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>2203</v>
+        <v>2071</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>1843</v>
@@ -11666,10 +11667,10 @@
     </row>
     <row r="65" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>2204</v>
+        <v>2072</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>1844</v>
@@ -11677,10 +11678,10 @@
     </row>
     <row r="66" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>2205</v>
+        <v>2073</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>1845</v>
@@ -11688,10 +11689,10 @@
     </row>
     <row r="67" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>2206</v>
+        <v>2074</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>1846</v>
@@ -11699,10 +11700,10 @@
     </row>
     <row r="68" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>2207</v>
+        <v>2075</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>1847</v>
@@ -11710,10 +11711,10 @@
     </row>
     <row r="69" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>2208</v>
+        <v>2076</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>1848</v>
@@ -11721,10 +11722,10 @@
     </row>
     <row r="70" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>2209</v>
+        <v>2077</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>1849</v>
@@ -11732,10 +11733,10 @@
     </row>
     <row r="71" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>2210</v>
+        <v>2078</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>1850</v>
@@ -11743,10 +11744,10 @@
     </row>
     <row r="72" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>2211</v>
+        <v>2079</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>1851</v>
@@ -11754,10 +11755,10 @@
     </row>
     <row r="73" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>2212</v>
+        <v>2080</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>1852</v>
@@ -11765,10 +11766,10 @@
     </row>
     <row r="74" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>2213</v>
+        <v>2081</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>1853</v>
@@ -11776,10 +11777,10 @@
     </row>
     <row r="75" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>2214</v>
+        <v>2082</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>1854</v>
@@ -11787,10 +11788,10 @@
     </row>
     <row r="76" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>2215</v>
+        <v>2083</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>1855</v>
@@ -11798,10 +11799,10 @@
     </row>
     <row r="77" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>2216</v>
+        <v>2084</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>1856</v>
@@ -11809,10 +11810,10 @@
     </row>
     <row r="78" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>2217</v>
+        <v>2085</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>1857</v>
@@ -11820,10 +11821,10 @@
     </row>
     <row r="79" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>2218</v>
+        <v>2086</v>
       </c>
       <c r="B79" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>1858</v>
@@ -11831,10 +11832,10 @@
     </row>
     <row r="80" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>2219</v>
+        <v>2087</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>1859</v>
@@ -11842,10 +11843,10 @@
     </row>
     <row r="81" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>2220</v>
+        <v>2088</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>1860</v>
@@ -11853,10 +11854,10 @@
     </row>
     <row r="82" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>2221</v>
+        <v>2089</v>
       </c>
       <c r="B82" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>1861</v>
@@ -11864,10 +11865,10 @@
     </row>
     <row r="83" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>2222</v>
+        <v>2090</v>
       </c>
       <c r="B83" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>1862</v>
@@ -11875,10 +11876,10 @@
     </row>
     <row r="84" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>2223</v>
+        <v>2091</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>1863</v>
@@ -11886,10 +11887,10 @@
     </row>
     <row r="85" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>2224</v>
+        <v>2092</v>
       </c>
       <c r="B85" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>1864</v>
@@ -11897,10 +11898,10 @@
     </row>
     <row r="86" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>2225</v>
+        <v>2093</v>
       </c>
       <c r="B86" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>1865</v>
@@ -11908,10 +11909,10 @@
     </row>
     <row r="87" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>2226</v>
+        <v>2094</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>1866</v>
@@ -11919,10 +11920,10 @@
     </row>
     <row r="88" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>2227</v>
+        <v>2095</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>1867</v>
@@ -11930,10 +11931,10 @@
     </row>
     <row r="89" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>2228</v>
+        <v>2096</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>1868</v>
@@ -11941,10 +11942,10 @@
     </row>
     <row r="90" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>2229</v>
+        <v>2097</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>1869</v>
@@ -11952,10 +11953,10 @@
     </row>
     <row r="91" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>2230</v>
+        <v>2098</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>1870</v>
@@ -11963,10 +11964,10 @@
     </row>
     <row r="92" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>2231</v>
+        <v>2099</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>1871</v>
@@ -11974,10 +11975,10 @@
     </row>
     <row r="93" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>2232</v>
+        <v>2100</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>1872</v>
@@ -11985,10 +11986,10 @@
     </row>
     <row r="94" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>2233</v>
+        <v>2101</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>1873</v>
@@ -11996,10 +11997,10 @@
     </row>
     <row r="95" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>2234</v>
+        <v>2102</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>1874</v>
@@ -12007,10 +12008,10 @@
     </row>
     <row r="96" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>2235</v>
+        <v>2103</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>1875</v>
@@ -12018,10 +12019,10 @@
     </row>
     <row r="97" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>2236</v>
+        <v>2104</v>
       </c>
       <c r="B97" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>1876</v>
@@ -12029,10 +12030,10 @@
     </row>
     <row r="98" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>2237</v>
+        <v>2105</v>
       </c>
       <c r="B98" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>1877</v>
@@ -12040,10 +12041,10 @@
     </row>
     <row r="99" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>2238</v>
+        <v>2106</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>1878</v>
@@ -12051,10 +12052,10 @@
     </row>
     <row r="100" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>2239</v>
+        <v>2107</v>
       </c>
       <c r="B100" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>1879</v>
@@ -12062,10 +12063,10 @@
     </row>
     <row r="101" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>2240</v>
+        <v>2108</v>
       </c>
       <c r="B101" s="4" t="s">
-        <v>2241</v>
+        <v>2109</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>1880</v>
@@ -12084,8 +12085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2CFC58D-9DC9-4FA8-82DC-FE178B236CAD}">
   <dimension ref="A1:C229"/>
   <sheetViews>
-    <sheetView topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14624,8 +14625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F008B77-4F8B-4CF9-A2A1-E9CC06170AC2}">
   <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A134" sqref="A134"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14649,7 +14650,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>2009</v>
+        <v>2110</v>
       </c>
       <c r="B2" t="s">
         <v>579</v>
@@ -14660,7 +14661,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>2010</v>
+        <v>2111</v>
       </c>
       <c r="B3" t="s">
         <v>579</v>
@@ -14671,7 +14672,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>2011</v>
+        <v>2112</v>
       </c>
       <c r="B4" t="s">
         <v>579</v>
@@ -14682,7 +14683,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>2012</v>
+        <v>2113</v>
       </c>
       <c r="B5" t="s">
         <v>579</v>
@@ -14693,7 +14694,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>2023</v>
+        <v>2114</v>
       </c>
       <c r="B6" t="s">
         <v>579</v>
@@ -14704,7 +14705,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>2024</v>
+        <v>2115</v>
       </c>
       <c r="B7" t="s">
         <v>579</v>
@@ -14715,7 +14716,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>2025</v>
+        <v>2116</v>
       </c>
       <c r="B8" t="s">
         <v>579</v>
@@ -14726,7 +14727,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>2026</v>
+        <v>2117</v>
       </c>
       <c r="B9" t="s">
         <v>579</v>
@@ -14737,7 +14738,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>2027</v>
+        <v>2118</v>
       </c>
       <c r="B10" t="s">
         <v>579</v>
@@ -14748,7 +14749,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>2028</v>
+        <v>2119</v>
       </c>
       <c r="B11" t="s">
         <v>579</v>
@@ -14759,7 +14760,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>2029</v>
+        <v>2120</v>
       </c>
       <c r="B12" t="s">
         <v>579</v>
@@ -14770,7 +14771,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>2030</v>
+        <v>2121</v>
       </c>
       <c r="B13" t="s">
         <v>579</v>
@@ -14781,7 +14782,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>2031</v>
+        <v>2122</v>
       </c>
       <c r="B14" t="s">
         <v>579</v>
@@ -14792,7 +14793,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>2032</v>
+        <v>2123</v>
       </c>
       <c r="B15" t="s">
         <v>579</v>
@@ -14803,7 +14804,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>2033</v>
+        <v>2124</v>
       </c>
       <c r="B16" t="s">
         <v>579</v>
@@ -14814,7 +14815,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>2034</v>
+        <v>2125</v>
       </c>
       <c r="B17" t="s">
         <v>579</v>
@@ -14825,7 +14826,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>2035</v>
+        <v>2126</v>
       </c>
       <c r="B18" t="s">
         <v>579</v>
@@ -14836,7 +14837,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>2036</v>
+        <v>2127</v>
       </c>
       <c r="B19" t="s">
         <v>579</v>
@@ -14847,7 +14848,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
-        <v>2037</v>
+        <v>2128</v>
       </c>
       <c r="B20" t="s">
         <v>579</v>
@@ -14858,7 +14859,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>2038</v>
+        <v>2129</v>
       </c>
       <c r="B21" t="s">
         <v>579</v>
@@ -14869,7 +14870,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>2039</v>
+        <v>2130</v>
       </c>
       <c r="B22" t="s">
         <v>579</v>
@@ -14880,7 +14881,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>2040</v>
+        <v>2131</v>
       </c>
       <c r="B23" t="s">
         <v>579</v>
@@ -14891,7 +14892,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>2041</v>
+        <v>2132</v>
       </c>
       <c r="B24" t="s">
         <v>579</v>
@@ -14902,7 +14903,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>2042</v>
+        <v>2133</v>
       </c>
       <c r="B25" t="s">
         <v>579</v>
@@ -14913,7 +14914,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>2043</v>
+        <v>2134</v>
       </c>
       <c r="B26" t="s">
         <v>579</v>
@@ -14924,7 +14925,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>2044</v>
+        <v>2135</v>
       </c>
       <c r="B27" t="s">
         <v>579</v>
@@ -14935,7 +14936,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>2045</v>
+        <v>2136</v>
       </c>
       <c r="B28" t="s">
         <v>579</v>
@@ -14946,7 +14947,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>2046</v>
+        <v>2137</v>
       </c>
       <c r="B29" t="s">
         <v>579</v>
@@ -14957,7 +14958,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>2047</v>
+        <v>2138</v>
       </c>
       <c r="B30" t="s">
         <v>579</v>
@@ -14968,7 +14969,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>2048</v>
+        <v>2139</v>
       </c>
       <c r="B31" t="s">
         <v>579</v>
@@ -14979,7 +14980,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>2049</v>
+        <v>2140</v>
       </c>
       <c r="B32" t="s">
         <v>579</v>
@@ -14990,7 +14991,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>2050</v>
+        <v>2141</v>
       </c>
       <c r="B33" t="s">
         <v>579</v>
@@ -15001,7 +15002,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>2051</v>
+        <v>2142</v>
       </c>
       <c r="B34" t="s">
         <v>579</v>
@@ -15012,7 +15013,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>2052</v>
+        <v>2143</v>
       </c>
       <c r="B35" t="s">
         <v>579</v>
@@ -15023,7 +15024,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>2053</v>
+        <v>2144</v>
       </c>
       <c r="B36" t="s">
         <v>579</v>
@@ -15034,7 +15035,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>2054</v>
+        <v>2145</v>
       </c>
       <c r="B37" t="s">
         <v>579</v>
@@ -15045,7 +15046,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>2055</v>
+        <v>2146</v>
       </c>
       <c r="B38" t="s">
         <v>579</v>
@@ -15056,7 +15057,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
-        <v>2056</v>
+        <v>2147</v>
       </c>
       <c r="B39" t="s">
         <v>579</v>
@@ -15067,7 +15068,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
-        <v>2057</v>
+        <v>2148</v>
       </c>
       <c r="B40" t="s">
         <v>579</v>
@@ -15078,7 +15079,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
-        <v>2058</v>
+        <v>2149</v>
       </c>
       <c r="B41" t="s">
         <v>579</v>
@@ -15089,7 +15090,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
-        <v>2059</v>
+        <v>2150</v>
       </c>
       <c r="B42" t="s">
         <v>579</v>
@@ -15100,7 +15101,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
-        <v>2060</v>
+        <v>2151</v>
       </c>
       <c r="B43" t="s">
         <v>579</v>
@@ -15111,7 +15112,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
-        <v>2061</v>
+        <v>2152</v>
       </c>
       <c r="B44" t="s">
         <v>579</v>
@@ -15122,7 +15123,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
-        <v>2062</v>
+        <v>2153</v>
       </c>
       <c r="B45" t="s">
         <v>579</v>
@@ -15133,7 +15134,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
-        <v>2063</v>
+        <v>2154</v>
       </c>
       <c r="B46" t="s">
         <v>579</v>
@@ -15144,7 +15145,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
-        <v>2064</v>
+        <v>2155</v>
       </c>
       <c r="B47" t="s">
         <v>579</v>
@@ -15155,7 +15156,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
-        <v>2065</v>
+        <v>2156</v>
       </c>
       <c r="B48" t="s">
         <v>579</v>
@@ -15166,7 +15167,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
-        <v>2066</v>
+        <v>2157</v>
       </c>
       <c r="B49" t="s">
         <v>579</v>
@@ -15177,7 +15178,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
-        <v>2067</v>
+        <v>2158</v>
       </c>
       <c r="B50" t="s">
         <v>579</v>
@@ -15188,7 +15189,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
-        <v>2068</v>
+        <v>2159</v>
       </c>
       <c r="B51" t="s">
         <v>579</v>
@@ -15199,7 +15200,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
-        <v>2069</v>
+        <v>2161</v>
       </c>
       <c r="B52" t="s">
         <v>579</v>
@@ -15210,7 +15211,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
-        <v>2070</v>
+        <v>2162</v>
       </c>
       <c r="B53" t="s">
         <v>579</v>
@@ -15221,7 +15222,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
-        <v>2071</v>
+        <v>2163</v>
       </c>
       <c r="B54" t="s">
         <v>579</v>
@@ -15232,7 +15233,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
-        <v>2072</v>
+        <v>2164</v>
       </c>
       <c r="B55" t="s">
         <v>579</v>
@@ -15243,7 +15244,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
-        <v>2013</v>
+        <v>2165</v>
       </c>
       <c r="B56" t="s">
         <v>579</v>
@@ -15254,7 +15255,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
-        <v>2014</v>
+        <v>2166</v>
       </c>
       <c r="B57" t="s">
         <v>579</v>
@@ -15265,7 +15266,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
-        <v>2015</v>
+        <v>2167</v>
       </c>
       <c r="B58" t="s">
         <v>579</v>
@@ -15276,7 +15277,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
-        <v>2016</v>
+        <v>2168</v>
       </c>
       <c r="B59" t="s">
         <v>579</v>
@@ -15287,7 +15288,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
-        <v>2017</v>
+        <v>2169</v>
       </c>
       <c r="B60" t="s">
         <v>579</v>
@@ -15298,7 +15299,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
-        <v>2073</v>
+        <v>2170</v>
       </c>
       <c r="B61" t="s">
         <v>579</v>
@@ -15309,7 +15310,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
-        <v>2074</v>
+        <v>2171</v>
       </c>
       <c r="B62" t="s">
         <v>579</v>
@@ -15320,7 +15321,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
-        <v>2075</v>
+        <v>2172</v>
       </c>
       <c r="B63" t="s">
         <v>579</v>
@@ -15331,7 +15332,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
-        <v>2076</v>
+        <v>2173</v>
       </c>
       <c r="B64" t="s">
         <v>579</v>
@@ -15342,7 +15343,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
-        <v>2077</v>
+        <v>2174</v>
       </c>
       <c r="B65" t="s">
         <v>579</v>
@@ -15353,7 +15354,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
-        <v>2078</v>
+        <v>2175</v>
       </c>
       <c r="B66" t="s">
         <v>579</v>
@@ -15364,7 +15365,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
-        <v>2079</v>
+        <v>2176</v>
       </c>
       <c r="B67" t="s">
         <v>579</v>
@@ -15375,7 +15376,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
-        <v>2080</v>
+        <v>2177</v>
       </c>
       <c r="B68" t="s">
         <v>579</v>
@@ -15386,7 +15387,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
-        <v>2081</v>
+        <v>2178</v>
       </c>
       <c r="B69" t="s">
         <v>579</v>
@@ -15397,7 +15398,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
-        <v>2082</v>
+        <v>2179</v>
       </c>
       <c r="B70" t="s">
         <v>579</v>
@@ -15408,7 +15409,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
-        <v>2083</v>
+        <v>2180</v>
       </c>
       <c r="B71" t="s">
         <v>579</v>
@@ -15419,7 +15420,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
-        <v>2084</v>
+        <v>2181</v>
       </c>
       <c r="B72" t="s">
         <v>579</v>
@@ -15430,7 +15431,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
-        <v>2085</v>
+        <v>2182</v>
       </c>
       <c r="B73" t="s">
         <v>579</v>
@@ -15441,7 +15442,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
-        <v>2086</v>
+        <v>2183</v>
       </c>
       <c r="B74" t="s">
         <v>579</v>
@@ -15452,7 +15453,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
-        <v>2087</v>
+        <v>2184</v>
       </c>
       <c r="B75" t="s">
         <v>579</v>
@@ -15463,7 +15464,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
-        <v>2088</v>
+        <v>2185</v>
       </c>
       <c r="B76" t="s">
         <v>579</v>
@@ -15474,7 +15475,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
-        <v>2089</v>
+        <v>2186</v>
       </c>
       <c r="B77" t="s">
         <v>579</v>
@@ -15485,7 +15486,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
-        <v>2090</v>
+        <v>2187</v>
       </c>
       <c r="B78" t="s">
         <v>579</v>
@@ -15496,7 +15497,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
-        <v>2091</v>
+        <v>2188</v>
       </c>
       <c r="B79" t="s">
         <v>579</v>
@@ -15507,7 +15508,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
-        <v>2092</v>
+        <v>2189</v>
       </c>
       <c r="B80" t="s">
         <v>579</v>
@@ -15518,7 +15519,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
-        <v>2093</v>
+        <v>2190</v>
       </c>
       <c r="B81" t="s">
         <v>579</v>
@@ -15529,7 +15530,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
-        <v>2094</v>
+        <v>2191</v>
       </c>
       <c r="B82" t="s">
         <v>579</v>
@@ -15540,7 +15541,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
-        <v>2095</v>
+        <v>2192</v>
       </c>
       <c r="B83" t="s">
         <v>579</v>
@@ -15551,7 +15552,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
-        <v>2096</v>
+        <v>2193</v>
       </c>
       <c r="B84" t="s">
         <v>579</v>
@@ -15562,7 +15563,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
-        <v>2097</v>
+        <v>2194</v>
       </c>
       <c r="B85" t="s">
         <v>579</v>
@@ -15573,7 +15574,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
-        <v>2098</v>
+        <v>2195</v>
       </c>
       <c r="B86" t="s">
         <v>579</v>
@@ -15584,7 +15585,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
-        <v>2099</v>
+        <v>2196</v>
       </c>
       <c r="B87" t="s">
         <v>579</v>
@@ -15595,7 +15596,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
-        <v>2100</v>
+        <v>2197</v>
       </c>
       <c r="B88" t="s">
         <v>579</v>
@@ -15606,7 +15607,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
-        <v>2101</v>
+        <v>2198</v>
       </c>
       <c r="B89" t="s">
         <v>579</v>
@@ -15617,7 +15618,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
-        <v>2102</v>
+        <v>2199</v>
       </c>
       <c r="B90" t="s">
         <v>579</v>
@@ -15628,7 +15629,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
-        <v>2103</v>
+        <v>2200</v>
       </c>
       <c r="B91" t="s">
         <v>579</v>
@@ -15639,7 +15640,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
-        <v>2104</v>
+        <v>2201</v>
       </c>
       <c r="B92" t="s">
         <v>579</v>
@@ -15650,7 +15651,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
-        <v>2105</v>
+        <v>2202</v>
       </c>
       <c r="B93" t="s">
         <v>579</v>
@@ -15661,7 +15662,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
-        <v>2106</v>
+        <v>2203</v>
       </c>
       <c r="B94" t="s">
         <v>579</v>
@@ -15672,7 +15673,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
-        <v>2107</v>
+        <v>2204</v>
       </c>
       <c r="B95" t="s">
         <v>579</v>
@@ -15683,7 +15684,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
-        <v>2108</v>
+        <v>2205</v>
       </c>
       <c r="B96" t="s">
         <v>579</v>
@@ -15694,7 +15695,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
-        <v>2109</v>
+        <v>2206</v>
       </c>
       <c r="B97" t="s">
         <v>579</v>
@@ -15705,7 +15706,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
-        <v>2110</v>
+        <v>2207</v>
       </c>
       <c r="B98" t="s">
         <v>579</v>
@@ -15716,7 +15717,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
-        <v>2111</v>
+        <v>2208</v>
       </c>
       <c r="B99" t="s">
         <v>579</v>
@@ -15727,7 +15728,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
-        <v>2112</v>
+        <v>2209</v>
       </c>
       <c r="B100" t="s">
         <v>579</v>
@@ -15738,7 +15739,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
-        <v>2113</v>
+        <v>2160</v>
       </c>
       <c r="B101" t="s">
         <v>579</v>
@@ -15749,7 +15750,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
-        <v>2114</v>
+        <v>2241</v>
       </c>
       <c r="B102" t="s">
         <v>579</v>
@@ -15760,7 +15761,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
-        <v>2115</v>
+        <v>2210</v>
       </c>
       <c r="B103" t="s">
         <v>579</v>
@@ -15771,7 +15772,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
-        <v>2116</v>
+        <v>2211</v>
       </c>
       <c r="B104" t="s">
         <v>579</v>
@@ -15782,7 +15783,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
-        <v>2117</v>
+        <v>2212</v>
       </c>
       <c r="B105" t="s">
         <v>579</v>
@@ -15793,7 +15794,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
-        <v>2118</v>
+        <v>2213</v>
       </c>
       <c r="B106" t="s">
         <v>579</v>
@@ -15804,7 +15805,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
-        <v>2119</v>
+        <v>2214</v>
       </c>
       <c r="B107" t="s">
         <v>579</v>
@@ -15815,7 +15816,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
-        <v>2120</v>
+        <v>2215</v>
       </c>
       <c r="B108" t="s">
         <v>579</v>
@@ -15826,7 +15827,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
-        <v>2121</v>
+        <v>2216</v>
       </c>
       <c r="B109" t="s">
         <v>579</v>
@@ -15837,7 +15838,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
-        <v>2122</v>
+        <v>2217</v>
       </c>
       <c r="B110" t="s">
         <v>579</v>
@@ -15848,7 +15849,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
-        <v>2018</v>
+        <v>2218</v>
       </c>
       <c r="B111" t="s">
         <v>579</v>
@@ -15859,7 +15860,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
-        <v>2019</v>
+        <v>2219</v>
       </c>
       <c r="B112" t="s">
         <v>579</v>
@@ -15870,7 +15871,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
-        <v>2020</v>
+        <v>2220</v>
       </c>
       <c r="B113" t="s">
         <v>579</v>
@@ -15881,7 +15882,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
-        <v>2021</v>
+        <v>2221</v>
       </c>
       <c r="B114" t="s">
         <v>579</v>
@@ -15892,7 +15893,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
-        <v>2022</v>
+        <v>2222</v>
       </c>
       <c r="B115" t="s">
         <v>579</v>
@@ -15903,7 +15904,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
-        <v>2123</v>
+        <v>2223</v>
       </c>
       <c r="B116" t="s">
         <v>579</v>
@@ -15914,7 +15915,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
-        <v>2124</v>
+        <v>2224</v>
       </c>
       <c r="B117" t="s">
         <v>579</v>
@@ -15925,7 +15926,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
-        <v>2125</v>
+        <v>2225</v>
       </c>
       <c r="B118" t="s">
         <v>579</v>
@@ -15936,7 +15937,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
-        <v>2126</v>
+        <v>2226</v>
       </c>
       <c r="B119" t="s">
         <v>579</v>
@@ -15947,7 +15948,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
-        <v>2127</v>
+        <v>2227</v>
       </c>
       <c r="B120" t="s">
         <v>579</v>
@@ -15958,7 +15959,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
-        <v>2128</v>
+        <v>2228</v>
       </c>
       <c r="B121" t="s">
         <v>579</v>
@@ -15969,7 +15970,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
-        <v>2129</v>
+        <v>2229</v>
       </c>
       <c r="B122" t="s">
         <v>579</v>
@@ -15980,7 +15981,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
-        <v>2130</v>
+        <v>2230</v>
       </c>
       <c r="B123" t="s">
         <v>579</v>
@@ -15991,7 +15992,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
-        <v>2131</v>
+        <v>2231</v>
       </c>
       <c r="B124" t="s">
         <v>579</v>
@@ -16002,7 +16003,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
-        <v>2132</v>
+        <v>2232</v>
       </c>
       <c r="B125" t="s">
         <v>579</v>
@@ -16013,7 +16014,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
-        <v>2133</v>
+        <v>2233</v>
       </c>
       <c r="B126" t="s">
         <v>579</v>
@@ -16024,7 +16025,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
-        <v>2134</v>
+        <v>2234</v>
       </c>
       <c r="B127" t="s">
         <v>579</v>
@@ -16035,7 +16036,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
-        <v>2135</v>
+        <v>2235</v>
       </c>
       <c r="B128" t="s">
         <v>579</v>
@@ -16046,7 +16047,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
-        <v>2136</v>
+        <v>2236</v>
       </c>
       <c r="B129" t="s">
         <v>579</v>
@@ -16057,7 +16058,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
-        <v>2137</v>
+        <v>2237</v>
       </c>
       <c r="B130" t="s">
         <v>579</v>
@@ -16068,7 +16069,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
-        <v>2138</v>
+        <v>2238</v>
       </c>
       <c r="B131" t="s">
         <v>579</v>
@@ -16079,7 +16080,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
-        <v>2139</v>
+        <v>2239</v>
       </c>
       <c r="B132" t="s">
         <v>579</v>
@@ -16090,7 +16091,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
-        <v>2140</v>
+        <v>2240</v>
       </c>
       <c r="B133" t="s">
         <v>579</v>

--- a/mapping_file_creator/primer_lists.xlsx
+++ b/mapping_file_creator/primer_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="259" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8BD3443-DEBF-4025-98A0-F5EED136D491}"/>
+  <xr:revisionPtr revIDLastSave="264" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E329955-C37D-432C-B4DB-B911C9964871}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="13" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="6" activeTab="6" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
   </bookViews>
   <sheets>
     <sheet name="515F_Golay" sheetId="5" r:id="rId1"/>
@@ -10461,8 +10461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951FF768-AEA3-4477-8164-51403B05AB50}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" workbookViewId="0">
-      <selection activeCell="G115" sqref="G115"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13941,11 +13941,9 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2CC26EF-8FCE-4AFD-A2AC-5E99EE575373}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:E101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -13955,21 +13953,21 @@
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
-        <v>444</v>
+        <v>203</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>2242</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>443</v>
+        <v>202</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>2827</v>
       </c>
@@ -13980,8 +13978,9 @@
       <c r="D2" s="10" t="s">
         <v>577</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="3" t="s">
         <v>2828</v>
       </c>
@@ -13992,7 +13991,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="3" t="s">
         <v>2829</v>
       </c>
@@ -14003,7 +14002,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="3" t="s">
         <v>2830</v>
       </c>
@@ -14014,7 +14013,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="3" t="s">
         <v>2831</v>
       </c>
@@ -14025,7 +14024,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="3" t="s">
         <v>2832</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="3" t="s">
         <v>2833</v>
       </c>
@@ -14047,7 +14046,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="3" t="s">
         <v>2834</v>
       </c>
@@ -14058,7 +14057,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="3" t="s">
         <v>2835</v>
       </c>
@@ -14069,7 +14068,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>2836</v>
       </c>
@@ -14080,7 +14079,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>2837</v>
       </c>
@@ -14091,7 +14090,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>2838</v>
       </c>
@@ -14102,7 +14101,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>2839</v>
       </c>
@@ -14113,7 +14112,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>2840</v>
       </c>
@@ -14124,7 +14123,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="3" t="s">
         <v>2841</v>
       </c>
@@ -15080,7 +15079,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E4D7DF6-D9C2-4D2B-89A6-979F302D4F78}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -16215,7 +16216,7 @@
   <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16950,8 +16951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A79E2E37-CE4D-418C-949D-C34823ED8B48}">
   <dimension ref="A1:D51"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -17685,7 +17686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E75C4310-D883-4546-AF70-F9640ACE9DBB}">
   <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F82" sqref="F82"/>
     </sheetView>
   </sheetViews>
@@ -25813,8 +25814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C105E2A-D1B7-4F1C-853F-5E682FE20436}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27249,8 +27250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497CB78B-87AF-4E67-BCCC-A6E435B3C93D}">
   <dimension ref="A1:D101"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="A102" sqref="A102"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28683,10 +28684,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A8E1DE-74ED-415C-AB53-011B83B5636D}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:E104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -28697,7 +28698,7 @@
     <col min="4" max="4" width="23.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>203</v>
       </c>
@@ -28711,7 +28712,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>1033</v>
       </c>
@@ -28722,8 +28723,9 @@
       <c r="D2" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="2"/>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>1034</v>
       </c>
@@ -28735,7 +28737,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>1035</v>
       </c>
@@ -28747,7 +28749,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>1036</v>
       </c>
@@ -28759,7 +28761,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>1037</v>
       </c>
@@ -28771,7 +28773,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="1" t="s">
         <v>1038</v>
       </c>
@@ -28783,7 +28785,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="1" t="s">
         <v>1039</v>
       </c>
@@ -28795,7 +28797,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="1" t="s">
         <v>1040</v>
       </c>
@@ -28807,7 +28809,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5">
       <c r="A10" s="1" t="s">
         <v>1041</v>
       </c>
@@ -28819,7 +28821,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5">
       <c r="A11" s="1" t="s">
         <v>1042</v>
       </c>
@@ -28831,7 +28833,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5">
       <c r="A12" s="1" t="s">
         <v>1043</v>
       </c>
@@ -28843,7 +28845,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5">
       <c r="A13" s="1" t="s">
         <v>1044</v>
       </c>
@@ -28855,7 +28857,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5">
       <c r="A14" s="1" t="s">
         <v>1045</v>
       </c>
@@ -28867,7 +28869,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:5">
       <c r="A15" s="1" t="s">
         <v>1046</v>
       </c>
@@ -28879,7 +28881,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:5">
       <c r="A16" s="1" t="s">
         <v>1047</v>
       </c>

--- a/mapping_file_creator/primer_lists.xlsx
+++ b/mapping_file_creator/primer_lists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://joinnioz-my.sharepoint.com/personal/maartje_brouwer_nioz_nl/Documents/Documenten/GitHub/molecular_tools/mapping_file_creator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="580" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8A46FDCC-3BF3-46C4-A640-9B45D20CCD78}"/>
+  <xr:revisionPtr revIDLastSave="585" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EE5BBBC-06DD-4976-8A82-2F2CCAB915DC}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
+    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" firstSheet="14" activeTab="14" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
   </bookViews>
   <sheets>
     <sheet name="515F_Golay" sheetId="5" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="3758">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="3759">
   <si>
     <t>TTCACTGACGGG</t>
   </si>
@@ -11256,9 +11256,6 @@
     <t>515F_M13Ftail</t>
   </si>
   <si>
-    <t>Sequence</t>
-  </si>
-  <si>
     <t>Primer</t>
   </si>
   <si>
@@ -11271,9 +11268,6 @@
     <t>CAGGAAACAGCTATGACCGATCCTKCTGCAGGTTCACCTA</t>
   </si>
   <si>
-    <t>tail</t>
-  </si>
-  <si>
     <t>TACAGWAAGACCCTATGAAGCTT</t>
   </si>
   <si>
@@ -11338,6 +11332,15 @@
   </si>
   <si>
     <t>ForwardPrimer</t>
+  </si>
+  <si>
+    <t>Primer_sequence</t>
+  </si>
+  <si>
+    <t>Tail_sequence</t>
+  </si>
+  <si>
+    <t>Complete_sequence</t>
   </si>
 </sst>
 </file>
@@ -11779,7 +11782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951FF768-AEA3-4477-8164-51403B05AB50}">
   <dimension ref="A1:D247"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
@@ -11799,7 +11802,7 @@
         <v>2241</v>
       </c>
       <c r="C1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D1" t="s">
         <v>201</v>
@@ -15280,7 +15283,7 @@
         <v>2241</v>
       </c>
       <c r="C1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D1" t="s">
         <v>201</v>
@@ -17553,7 +17556,7 @@
         <v>2241</v>
       </c>
       <c r="C1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D1" t="s">
         <v>201</v>
@@ -20454,8 +20457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED52836-F0EE-40E1-BC84-112FC3E41E70}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20468,16 +20471,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="11" t="s">
-        <v>3731</v>
+        <v>3730</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>3730</v>
+        <v>3758</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>3735</v>
+        <v>3757</v>
       </c>
       <c r="D1" t="s">
-        <v>3731</v>
+        <v>3756</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -20491,7 +20494,7 @@
         <v>3170</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>3738</v>
+        <v>3736</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -20505,7 +20508,7 @@
         <v>3158</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>3747</v>
+        <v>3745</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -20519,7 +20522,7 @@
         <v>3158</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>3748</v>
+        <v>3746</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -20533,7 +20536,7 @@
         <v>3170</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>3739</v>
+        <v>3737</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -20547,7 +20550,7 @@
         <v>3158</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>3749</v>
+        <v>3747</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -20564,7 +20567,7 @@
         <v>3170</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>3740</v>
+        <v>3738</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -20578,7 +20581,7 @@
         <v>3170</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>3741</v>
+        <v>3739</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -20592,7 +20595,7 @@
         <v>3158</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>3750</v>
+        <v>3748</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -20609,7 +20612,7 @@
         <v>3170</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>3742</v>
+        <v>3740</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -20623,7 +20626,7 @@
         <v>3158</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>3751</v>
+        <v>3749</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -20631,13 +20634,13 @@
         <v>3709</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>3732</v>
+        <v>3731</v>
       </c>
       <c r="C14" t="s">
         <v>3170</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>3743</v>
+        <v>3741</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -20651,7 +20654,7 @@
         <v>3158</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>3752</v>
+        <v>3750</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -20665,7 +20668,7 @@
         <v>3158</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>3753</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -20676,13 +20679,13 @@
         <v>3704</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>3733</v>
+        <v>3732</v>
       </c>
       <c r="C18" t="s">
         <v>3170</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>3744</v>
+        <v>3742</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -20696,7 +20699,7 @@
         <v>3158</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>3754</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -20710,7 +20713,7 @@
         <v>3170</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>3745</v>
+        <v>3743</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -20718,13 +20721,13 @@
         <v>3699</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>3734</v>
+        <v>3733</v>
       </c>
       <c r="C21" t="s">
         <v>3158</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>3755</v>
+        <v>3753</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -20738,7 +20741,7 @@
         <v>3170</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -20752,7 +20755,7 @@
         <v>3158</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -20766,7 +20769,7 @@
         <v>3170</v>
       </c>
       <c r="D24" s="11" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -20780,7 +20783,7 @@
         <v>3158</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -20794,7 +20797,7 @@
         <v>3170</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>3736</v>
+        <v>3734</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -20808,7 +20811,7 @@
         <v>3158</v>
       </c>
       <c r="D27" s="11" t="s">
-        <v>3737</v>
+        <v>3735</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -20822,7 +20825,7 @@
         <v>3170</v>
       </c>
       <c r="D28" s="11" t="s">
-        <v>3746</v>
+        <v>3744</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -20836,7 +20839,7 @@
         <v>3158</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>3756</v>
+        <v>3754</v>
       </c>
     </row>
   </sheetData>
@@ -20868,7 +20871,7 @@
         <v>3171</v>
       </c>
       <c r="C1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D1" t="s">
         <v>201</v>
@@ -23925,7 +23928,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D64" sqref="D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.85546875" defaultRowHeight="15"/>
@@ -29507,7 +29510,7 @@
         <v>2241</v>
       </c>
       <c r="C1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D1" t="s">
         <v>201</v>
@@ -30875,7 +30878,7 @@
         <v>3180</v>
       </c>
       <c r="C1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D1" t="s">
         <v>201</v>
@@ -33747,7 +33750,7 @@
         <v>2241</v>
       </c>
       <c r="C1" t="s">
-        <v>3757</v>
+        <v>3755</v>
       </c>
       <c r="D1" t="s">
         <v>201</v>

--- a/mapping_file_creator/primer_lists.xlsx
+++ b/mapping_file_creator/primer_lists.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="585" documentId="13_ncr:1_{B52CF759-285B-441E-BEA9-BDA3F1DCDF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EE5BBBC-06DD-4976-8A82-2F2CCAB915DC}"/>
   <bookViews>
-    <workbookView xWindow="-16320" yWindow="-6525" windowWidth="16440" windowHeight="28320" firstSheet="14" activeTab="14" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="16" xr2:uid="{65C7B25E-2C2E-405F-B0A1-59E254FD8C68}"/>
   </bookViews>
   <sheets>
     <sheet name="515F_Golay" sheetId="5" r:id="rId1"/>
@@ -20457,8 +20457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DED52836-F0EE-40E1-BC84-112FC3E41E70}">
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -22231,8 +22231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC2D11FB-8880-42AC-ABBA-D53AC990640E}">
   <dimension ref="A1:D97"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
